--- a/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/bin/Documentos/1.5 Plantilla_Iluminacion_residencial.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/bin/Documentos/1.5 Plantilla_Iluminacion_residencial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Versión borrado de meses y fechas SOLO SE DEJO AÑOS _V2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ESCRITORIO\Excls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CB2E67-0B74-47EB-8887-0E17520920F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A34EE7-007C-4DF8-8DAC-B8893348C918}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{38F91648-8E81-4530-8820-7CE20EF243A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{38F91648-8E81-4530-8820-7CE20EF243A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Iluminación Residencial" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -107,9 +101,6 @@
     <t>Ahorrador (LFC)</t>
   </si>
   <si>
-    <t>LED</t>
-  </si>
-  <si>
     <t>Año en que se compraron lámparas. Seleccione de la lista desplegable</t>
   </si>
   <si>
@@ -135,6 +126,9 @@
   </si>
   <si>
     <t>Potencia de Lámpara Acción (W)</t>
+  </si>
+  <si>
+    <t>Otros</t>
   </si>
 </sst>
 </file>
@@ -313,9 +307,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -330,6 +321,9 @@
     <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -648,7 +642,7 @@
   <dimension ref="A1:F312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,44 +664,44 @@
         <v>16</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="A2" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -721,13 +715,13 @@
       <c r="C4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
+        <v>11</v>
+      </c>
+      <c r="E4" s="15">
         <v>10</v>
       </c>
-      <c r="E4" s="16">
-        <v>11</v>
-      </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>800000</v>
       </c>
     </row>
@@ -4120,7 +4114,7 @@
       <c r="F312" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9x8zpHtLNFwxjXwK8ixkpac18IDVobxx9fPD9ZE22Q3kgeOufdfoxZtbngvJv+sf49D84hIF36HKr5u6PUI70w==" saltValue="ZK0nh8dXdkDp90si9+mA7A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3oralgusWXI3F4RiBNKV4UxMjCaHEtRapJq4lS0MGwzjwTctku8oZUAJQ+hsA4h5PQwjnNYfiP5NuV0VJJ/MsA==" saltValue="Bhw+X4Hg/bwH+ZaszeJJhA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A2:F2"/>
   </mergeCells>
@@ -4158,7 +4152,7 @@
   <dimension ref="A3:G24"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4262,7 +4256,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G8" s="7">
         <v>5</v>
